--- a/NformTester/NformTester/Keywordscripts/700.30.50_AlarmHistoryWithUserDefinedStartandEndDate.xlsx
+++ b/NformTester/NformTester/Keywordscripts/700.30.50_AlarmHistoryWithUserDefinedStartandEndDate.xlsx
@@ -1260,7 +1260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7763" uniqueCount="888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7769" uniqueCount="889">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3964,6 +3964,10 @@
   <si>
     <t>C</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeleteLocalFile</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4547,10 +4551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O57"/>
+  <dimension ref="A1:O59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4645,24 +4649,18 @@
         <v>2</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>0</v>
+        <v>888</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>817</v>
+        <v>874</v>
       </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
-        <v>842</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>843</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>844</v>
-      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -4679,24 +4677,30 @@
         <v>3</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>832</v>
+        <v>841</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="F4" s="3">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>817</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>844</v>
+      </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="14"/>
     </row>
-    <row r="5" spans="1:15" ht="15">
+    <row r="5" spans="1:15">
       <c r="A5" s="2" t="s">
         <v>826</v>
       </c>
@@ -4706,11 +4710,15 @@
       <c r="C5" s="3">
         <v>4</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>864</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="D5" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -4731,7 +4739,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -4749,13 +4757,13 @@
         <v>803</v>
       </c>
       <c r="B7" s="4">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C7" s="3">
         <v>6</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>845</v>
+        <v>865</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -4769,7 +4777,7 @@
       <c r="N7" s="14"/>
       <c r="O7" s="17"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" ht="15">
       <c r="A8" s="2" t="s">
         <v>846</v>
       </c>
@@ -4777,32 +4785,22 @@
       <c r="C8" s="3">
         <v>7</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>831</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>626</v>
-      </c>
+      <c r="D8" s="13" t="s">
+        <v>845</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="3" t="s">
-        <v>847</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>848</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>849</v>
-      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="24"/>
+      <c r="N8" s="14"/>
       <c r="O8" s="17"/>
     </row>
-    <row r="9" spans="1:15" ht="15">
+    <row r="9" spans="1:15">
       <c r="A9" s="2" t="s">
         <v>828</v>
       </c>
@@ -4810,22 +4808,32 @@
       <c r="C9" s="3">
         <v>8</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>866</v>
-      </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="19"/>
+      <c r="D9" s="11" t="s">
+        <v>831</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="24"/>
       <c r="O9" s="17"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" ht="15">
       <c r="A10" s="2" t="s">
         <v>804</v>
       </c>
@@ -4835,23 +4843,15 @@
       <c r="C10" s="3">
         <v>9</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>867</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>802</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
-        <v>868</v>
-      </c>
-      <c r="I10" s="21">
-        <v>5</v>
-      </c>
-      <c r="J10" s="21" t="s">
-        <v>869</v>
-      </c>
+      <c r="D10" s="13" t="s">
+        <v>866</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
@@ -4864,26 +4864,30 @@
       <c r="C11" s="3">
         <v>10</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>832</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>799</v>
-      </c>
-      <c r="F11" s="3">
-        <v>5</v>
-      </c>
+      <c r="D11" s="20" t="s">
+        <v>867</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="14"/>
+      <c r="H11" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="I11" s="21">
+        <v>5</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>869</v>
+      </c>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="19"/>
       <c r="O11" s="17"/>
     </row>
-    <row r="12" spans="1:15" ht="15">
+    <row r="12" spans="1:15">
       <c r="A12" s="2" t="s">
         <v>806</v>
       </c>
@@ -4891,14 +4895,18 @@
       <c r="C12" s="3">
         <v>11</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>850</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="D12" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>799</v>
+      </c>
+      <c r="F12" s="3">
+        <v>5</v>
+      </c>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -4906,7 +4914,7 @@
       <c r="N12" s="14"/>
       <c r="O12" s="17"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" ht="15">
       <c r="A13" s="22" t="s">
         <v>807</v>
       </c>
@@ -4914,18 +4922,12 @@
       <c r="C13" s="3">
         <v>12</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>830</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="D13" s="13" t="s">
+        <v>850</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -4950,7 +4952,7 @@
         <v>19</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>2</v>
@@ -4979,7 +4981,7 @@
         <v>19</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>2</v>
@@ -5002,22 +5004,20 @@
         <v>15</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>832</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3" t="s">
-        <v>851</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>852</v>
-      </c>
-      <c r="J16" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>830</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -5041,7 +5041,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>852</v>
@@ -5064,25 +5064,21 @@
         <v>17</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>736</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>800</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
       <c r="H18" s="3" t="s">
-        <v>862</v>
+        <v>853</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="J18" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -5105,14 +5101,20 @@
         <v>736</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="J19" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
@@ -5136,7 +5138,7 @@
         <v>736</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>2</v>
@@ -5165,7 +5167,7 @@
         <v>736</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>2</v>
@@ -5194,7 +5196,7 @@
         <v>736</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>633</v>
+        <v>743</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>2</v>
@@ -5215,16 +5217,18 @@
         <v>22</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>870</v>
+        <v>830</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>871</v>
-      </c>
-      <c r="F23" s="3">
-        <v>2</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="18"/>
+        <v>736</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -5240,20 +5244,16 @@
         <v>23</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>830</v>
+        <v>870</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>736</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>854</v>
-      </c>
+        <v>871</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="18"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -5275,12 +5275,14 @@
         <v>736</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>745</v>
+        <v>633</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>872</v>
-      </c>
-      <c r="H25" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>854</v>
+      </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -5299,7 +5301,7 @@
         <v>736</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>634</v>
+        <v>745</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>872</v>
@@ -5319,16 +5321,18 @@
         <v>26</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>870</v>
+        <v>830</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>871</v>
-      </c>
-      <c r="F27" s="3">
-        <v>2</v>
-      </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="18"/>
+        <v>736</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -5344,20 +5348,16 @@
         <v>27</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>830</v>
+        <v>870</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>736</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>873</v>
-      </c>
+        <v>871</v>
+      </c>
+      <c r="F28" s="3">
+        <v>2</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="18"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -5377,12 +5377,14 @@
         <v>736</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>744</v>
+        <v>634</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>872</v>
-      </c>
-      <c r="H29" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>873</v>
+      </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -5401,14 +5403,12 @@
         <v>736</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>398</v>
+        <v>744</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>874</v>
-      </c>
+        <v>872</v>
+      </c>
+      <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -5427,12 +5427,14 @@
         <v>736</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>17</v>
+        <v>398</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H31" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>874</v>
+      </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -5447,16 +5449,18 @@
         <v>31</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>870</v>
+        <v>830</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>871</v>
-      </c>
-      <c r="F32" s="3">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="18"/>
+        <v>736</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -5470,18 +5474,16 @@
         <v>32</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>830</v>
+        <v>870</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>746</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H33" s="3"/>
+        <v>871</v>
+      </c>
+      <c r="F33" s="3">
+        <v>5</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="18"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -5494,22 +5496,20 @@
         <v>33</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>887</v>
+        <v>830</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3" t="s">
-        <v>851</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>852</v>
-      </c>
-      <c r="J34" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>746</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
@@ -5520,7 +5520,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>867</v>
+        <v>887</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>800</v>
@@ -5528,7 +5528,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>852</v>
@@ -5546,7 +5546,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>832</v>
+        <v>867</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>800</v>
@@ -5554,13 +5554,13 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3" t="s">
-        <v>874</v>
+        <v>853</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>875</v>
+        <v>852</v>
       </c>
       <c r="J36" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
@@ -5583,7 +5583,7 @@
         <v>874</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>858</v>
+        <v>875</v>
       </c>
       <c r="J37" s="3" t="b">
         <v>1</v>
@@ -5609,7 +5609,7 @@
         <v>874</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>876</v>
+        <v>858</v>
       </c>
       <c r="J38" s="3" t="b">
         <v>1</v>
@@ -5635,7 +5635,7 @@
         <v>874</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="J39" s="3" t="b">
         <v>1</v>
@@ -5661,7 +5661,7 @@
         <v>874</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>859</v>
+        <v>877</v>
       </c>
       <c r="J40" s="3" t="b">
         <v>1</v>
@@ -5687,7 +5687,7 @@
         <v>874</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>878</v>
+        <v>859</v>
       </c>
       <c r="J41" s="3" t="b">
         <v>1</v>
@@ -5714,7 +5714,7 @@
         <v>874</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J42" s="3" t="b">
         <v>1</v>
@@ -5741,7 +5741,7 @@
         <v>874</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="J43" s="3" t="b">
         <v>1</v>
@@ -5767,7 +5767,7 @@
         <v>874</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="J44" s="3" t="b">
         <v>1</v>
@@ -5793,7 +5793,7 @@
         <v>874</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="J45" s="3" t="b">
         <v>1</v>
@@ -5819,7 +5819,7 @@
         <v>874</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="J46" s="3" t="b">
         <v>1</v>
@@ -5845,7 +5845,7 @@
         <v>874</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="J47" s="3" t="b">
         <v>1</v>
@@ -5871,7 +5871,7 @@
         <v>874</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="J48" s="3" t="b">
         <v>1</v>
@@ -5897,7 +5897,7 @@
         <v>874</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="J49" s="3" t="b">
         <v>1</v>
@@ -5923,7 +5923,7 @@
         <v>874</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>863</v>
+        <v>886</v>
       </c>
       <c r="J50" s="3" t="b">
         <v>1</v>
@@ -5933,42 +5933,44 @@
       <c r="M50" s="3"/>
       <c r="N50" s="14"/>
     </row>
-    <row r="51" spans="3:14" ht="15">
+    <row r="51" spans="3:14">
       <c r="C51" s="3">
         <v>50</v>
       </c>
-      <c r="D51" s="13" t="s">
-        <v>855</v>
-      </c>
-      <c r="E51" s="3"/>
+      <c r="D51" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>800</v>
+      </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
+      <c r="H51" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="J51" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="14"/>
     </row>
-    <row r="52" spans="3:14">
+    <row r="52" spans="3:14" ht="15">
       <c r="C52" s="3">
         <v>51</v>
       </c>
-      <c r="D52" s="11" t="s">
-        <v>830</v>
-      </c>
-      <c r="E52" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
+      <c r="D52" s="13" t="s">
+        <v>855</v>
+      </c>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
@@ -5980,13 +5982,13 @@
         <v>52</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>856</v>
+        <v>830</v>
       </c>
       <c r="E53" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>2</v>
@@ -6007,25 +6009,23 @@
         <v>856</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>857</v>
+        <v>19</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>621</v>
+        <v>79</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>833</v>
-      </c>
-      <c r="I54" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="N54" s="14"/>
     </row>
-    <row r="55" spans="3:14" ht="14.25">
+    <row r="55" spans="3:14">
       <c r="C55" s="3">
         <v>54</v>
       </c>
@@ -6036,12 +6036,14 @@
         <v>857</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>213</v>
+        <v>621</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H55" s="15"/>
+        <v>3</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>833</v>
+      </c>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
@@ -6049,23 +6051,23 @@
       <c r="M55" s="3"/>
       <c r="N55" s="14"/>
     </row>
-    <row r="56" spans="3:14">
+    <row r="56" spans="3:14" ht="14.25">
       <c r="C56" s="3">
         <v>55</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>856</v>
       </c>
-      <c r="E56" s="3" t="s">
-        <v>628</v>
+      <c r="E56" s="21" t="s">
+        <v>857</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H56" s="21"/>
+      <c r="H56" s="15"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
@@ -6080,26 +6082,64 @@
       <c r="D57" s="11" t="s">
         <v>856</v>
       </c>
-      <c r="E57" s="21" t="s">
-        <v>857</v>
+      <c r="E57" s="3" t="s">
+        <v>628</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>100</v>
+        <v>244</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H57" s="21"/>
-      <c r="I57" s="21"/>
+      <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
       <c r="N57" s="14"/>
     </row>
+    <row r="58" spans="3:14">
+      <c r="C58" s="3">
+        <v>57</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>856</v>
+      </c>
+      <c r="E58" s="21" t="s">
+        <v>857</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="14"/>
+    </row>
+    <row r="59" spans="3:14">
+      <c r="C59" s="3">
+        <v>58</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>874</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N57">
+  <conditionalFormatting sqref="N2:N58">
     <cfRule type="cellIs" dxfId="1" priority="25" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -6108,16 +6148,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H10 G2:G53 G55:G57">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H11 G56:G58 G2:G54">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F57">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D53 D3:D5 D11:D12 D14:D51 D59">
+      <formula1>"C,F,T,;"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F4:F58">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D52 D3:D4 D10:D11 D13:D50">
-      <formula1>"C,F,T,;"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E57">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E59">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>

--- a/NformTester/NformTester/Keywordscripts/700.30.50_AlarmHistoryWithUserDefinedStartandEndDate.xlsx
+++ b/NformTester/NformTester/Keywordscripts/700.30.50_AlarmHistoryWithUserDefinedStartandEndDate.xlsx
@@ -1260,7 +1260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7769" uniqueCount="889">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7772" uniqueCount="892">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3826,15 +3826,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>MultiSearch</t>
-  </si>
-  <si>
-    <t>$SNMP_SearchStart$</t>
-  </si>
-  <si>
-    <t>$SNMP_SearchEnd$</t>
-  </si>
-  <si>
     <t xml:space="preserve">;Export history </t>
   </si>
   <si>
@@ -3898,10 +3889,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_GXT_Ip_Port$</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>$Trap_GXT_Trap$</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -3968,13 +3955,37 @@
   <si>
     <t>DeleteLocalFile</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SingleManual</t>
+  </si>
+  <si>
+    <t>$SNMP_device_0$</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SNMP_GXT_0$</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Description for GXT"</t>
+  </si>
+  <si>
+    <t>"Liebert GXT UPS/WebCard"</t>
+  </si>
+  <si>
+    <t>"SNMP"</t>
+  </si>
+  <si>
+    <t>$Trap_GXT_Port$</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4041,6 +4052,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4081,6 +4093,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -4162,7 +4182,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4176,8 +4196,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4236,17 +4259,103 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 2 2" xfId="3"/>
+    <cellStyle name="常规 2 2 2" xfId="4"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4553,8 +4662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4643,7 +4752,7 @@
         <v>822</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
@@ -4652,10 +4761,10 @@
         <v>832</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -4739,7 +4848,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -4763,7 +4872,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -4818,19 +4927,25 @@
         <v>626</v>
       </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="3" t="s">
-        <v>847</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>848</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>849</v>
-      </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="24"/>
+      <c r="H9" s="24" t="s">
+        <v>885</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>886</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>887</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>888</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>889</v>
+      </c>
+      <c r="M9" s="24" t="s">
+        <v>890</v>
+      </c>
+      <c r="N9" s="25"/>
       <c r="O9" s="17"/>
     </row>
     <row r="10" spans="1:15" ht="15">
@@ -4844,7 +4959,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
@@ -4865,21 +4980,21 @@
         <v>10</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>802</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>868</v>
+      <c r="H11" s="24" t="s">
+        <v>891</v>
       </c>
       <c r="I11" s="21">
         <v>5</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
@@ -4923,7 +5038,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -5041,10 +5156,10 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="J17" s="3" t="b">
         <v>0</v>
@@ -5072,10 +5187,10 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="J18" s="3" t="b">
         <v>0</v>
@@ -5107,10 +5222,10 @@
         <v>7</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="J19" s="3" t="b">
         <v>1</v>
@@ -5244,10 +5359,10 @@
         <v>23</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="F24" s="3">
         <v>2</v>
@@ -5281,7 +5396,7 @@
         <v>3</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -5304,7 +5419,7 @@
         <v>745</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -5330,7 +5445,7 @@
         <v>634</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -5348,10 +5463,10 @@
         <v>27</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="F28" s="3">
         <v>2</v>
@@ -5383,7 +5498,7 @@
         <v>3</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
@@ -5406,7 +5521,7 @@
         <v>744</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -5433,7 +5548,7 @@
         <v>4</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
@@ -5474,10 +5589,10 @@
         <v>32</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="F33" s="3">
         <v>5</v>
@@ -5520,7 +5635,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>800</v>
@@ -5528,10 +5643,10 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="J35" s="3" t="b">
         <v>0</v>
@@ -5546,7 +5661,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>800</v>
@@ -5554,10 +5669,10 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="J36" s="3" t="b">
         <v>0</v>
@@ -5580,10 +5695,10 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="J37" s="3" t="b">
         <v>1</v>
@@ -5606,10 +5721,10 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="J38" s="3" t="b">
         <v>1</v>
@@ -5632,10 +5747,10 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="J39" s="3" t="b">
         <v>1</v>
@@ -5658,10 +5773,10 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="J40" s="3" t="b">
         <v>1</v>
@@ -5684,10 +5799,10 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="J41" s="3" t="b">
         <v>1</v>
@@ -5711,10 +5826,10 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="I42" s="3" t="s">
         <v>874</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>878</v>
       </c>
       <c r="J42" s="3" t="b">
         <v>1</v>
@@ -5738,10 +5853,10 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="J43" s="3" t="b">
         <v>1</v>
@@ -5764,10 +5879,10 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="J44" s="3" t="b">
         <v>1</v>
@@ -5790,10 +5905,10 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="J45" s="3" t="b">
         <v>1</v>
@@ -5816,10 +5931,10 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="J46" s="3" t="b">
         <v>1</v>
@@ -5842,10 +5957,10 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="J47" s="3" t="b">
         <v>1</v>
@@ -5868,10 +5983,10 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="J48" s="3" t="b">
         <v>1</v>
@@ -5894,10 +6009,10 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="J49" s="3" t="b">
         <v>1</v>
@@ -5920,10 +6035,10 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="J50" s="3" t="b">
         <v>1</v>
@@ -5946,10 +6061,10 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="J51" s="3" t="b">
         <v>1</v>
@@ -5964,7 +6079,7 @@
         <v>51</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -6006,7 +6121,7 @@
         <v>53</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="E54" s="21" t="s">
         <v>19</v>
@@ -6030,10 +6145,10 @@
         <v>54</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="E55" s="21" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>621</v>
@@ -6056,10 +6171,10 @@
         <v>55</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="E56" s="21" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>213</v>
@@ -6080,7 +6195,7 @@
         <v>56</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>628</v>
@@ -6104,10 +6219,10 @@
         <v>57</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="E58" s="21" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>100</v>
@@ -6131,24 +6246,48 @@
         <v>832</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="N2:N58">
-    <cfRule type="cellIs" dxfId="1" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="31" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="32" stopIfTrue="1" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N9">
+    <cfRule type="cellIs" dxfId="11" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N9">
+    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N9">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H11 G56:G58 G2:G54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G54 G56:G58 H11">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D53 D3:D5 D11:D12 D14:D51 D59">
